--- a/Results/Table_1.xlsx
+++ b/Results/Table_1.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\R-Alotaibi\Documents\R Projects\TTI-AsthmaIR\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raed\Documents\R Projects\TTI-AsthmaIR\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9839FDDC-D410-43B6-BB14-68BBB4EC46F9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="12684" yWindow="1524" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -130,7 +131,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -142,7 +143,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -189,6 +190,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -224,6 +242,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -375,22 +410,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:D14"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -404,200 +438,196 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="e">
         <v>#N/A</v>
       </c>
       <c r="B2" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>6182882</v>
       </c>
-      <c r="D2" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>2592604</v>
       </c>
-      <c r="D3" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>796454</v>
       </c>
-      <c r="D4" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D4" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>2793824</v>
       </c>
-      <c r="D5" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E5" s="1">
-        <f>SUM(C4:C5)</f>
-        <v>3590278</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="e">
         <v>#N/A</v>
       </c>
       <c r="B6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C6" s="1" t="e">
+      <c r="C6" t="e">
         <v>#N/A</v>
       </c>
       <c r="D6" s="1">
         <v>73690271</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C7" s="1" t="e">
+      <c r="C7" t="e">
         <v>#N/A</v>
       </c>
       <c r="D7" s="1">
         <v>13763183</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C8" s="1" t="e">
+      <c r="C8" t="e">
         <v>#N/A</v>
       </c>
       <c r="D8" s="1">
         <v>6994464</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="B9" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C9" s="1" t="e">
+      <c r="C9" t="e">
         <v>#N/A</v>
       </c>
       <c r="D9" s="1">
         <v>52932624</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="e">
         <v>#N/A</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="1" t="e">
+      <c r="C10" t="e">
         <v>#N/A</v>
       </c>
       <c r="D10" s="1">
         <v>2614804</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="e">
         <v>#N/A</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="1" t="e">
+      <c r="C11" t="e">
         <v>#N/A</v>
       </c>
       <c r="D11" s="1">
         <v>12770843</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="e">
         <v>#N/A</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="1" t="e">
+      <c r="C12" t="e">
         <v>#N/A</v>
       </c>
       <c r="D12" s="1">
         <v>18573954</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="e">
         <v>#N/A</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="1" t="e">
+      <c r="C13" t="e">
         <v>#N/A</v>
       </c>
       <c r="D13" s="1">
         <v>21953876</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="e">
         <v>#N/A</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="1" t="e">
+      <c r="C14" t="e">
         <v>#N/A</v>
       </c>
       <c r="D14" s="1">
         <v>17763239</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="e">
         <v>#N/A</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="1" t="e">
+      <c r="C15" t="e">
         <v>#N/A</v>
       </c>
       <c r="D15" s="1">
@@ -606,6 +636,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>